--- a/tree.xlsx
+++ b/tree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98798CB4-0AF6-42DE-A0B6-CDE20BAAD551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB040B3-B83F-46C3-BFB6-65556D9A6A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
   <si>
     <t>FirstLevel</t>
   </si>
@@ -265,75 +265,15 @@
     <t>Взрослые</t>
   </si>
   <si>
-    <t>18-29 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12fclPMgFPFnx-UnnP5PTo-_I3d2WvD2R/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>30-39 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1W3H1tJg-7-eqBU3u7BvXCPNOQ5HSBhnB/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>40-49 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cmMME82TVJDTn00ZCB3ktUGeLvYariTZ/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>50-59 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Fe6EAwkhWkMZjeMlheTSxUeY2bUdSaQB/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>60-69 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1r7cuCapQymck-67b-YjClkL9WSOQaJot/view?usp=share_link</t>
-  </si>
-  <si>
     <t>70 лет и старше</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1KCqCXztM8VA45Cv5zXYzkFE4ByKqkaMB/view?usp=share_link</t>
-  </si>
-  <si>
     <t>Дети</t>
   </si>
   <si>
-    <t>6-8 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1om5wc9z_KI0kRa2gS8PNBrVDQ_dVLHiy/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>9-10 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13Vljr2kCAXiZcVcrOZBbkJRbNK6R0qY2/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>11-12 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qalAM6XHyRJWjT1l0UYmmtxMxynq4v5I/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>13-15 лет</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jQmSo6ZCfOcQiy7nxBVaH5Igj4jiFjAT/view?usp=share_link</t>
-  </si>
-  <si>
     <t>16-17 лет</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1cN8KhyJg_DsoBYM5dCQQ3RQ0cgyWGPyb/view?usp=share_link</t>
-  </si>
-  <si>
     <t>#ДМС</t>
   </si>
   <si>
@@ -352,14 +292,164 @@
     <t>Файл: Карта секций</t>
   </si>
   <si>
-    <t>C:\Users\50AdmNsk\Downloads\Клиники.xlsx</t>
+    <t>Стоматология</t>
+  </si>
+  <si>
+    <t>Амбулаторная помощь</t>
+  </si>
+  <si>
+    <t>Скорая помощь</t>
+  </si>
+  <si>
+    <t>Помощь на дому</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Кемерово</t>
+  </si>
+  <si>
+    <t>Барнаул</t>
+  </si>
+  <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>Омск</t>
+  </si>
+  <si>
+    <t>Чита</t>
+  </si>
+  <si>
+    <t>Хакасия</t>
+  </si>
+  <si>
+    <t>Алтай</t>
+  </si>
+  <si>
+    <t>Тыва</t>
+  </si>
+  <si>
+    <t>Бурятия</t>
+  </si>
+  <si>
+    <t>Иркутск</t>
+  </si>
+  <si>
+    <t>Красноярск</t>
+  </si>
+  <si>
+    <t>Стационар плановый-экстренный</t>
+  </si>
+  <si>
+    <t>6-7 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/rbisah2pgrhoayh/6-7.pdf/file</t>
+  </si>
+  <si>
+    <t>8-9 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/hcptvolbf3xj8t5/8-9.pdf/file</t>
+  </si>
+  <si>
+    <t>10-11 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/gd5b8b7eevgomdn/10-11.pdf/file</t>
+  </si>
+  <si>
+    <t>12-13 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/78wbezs83hrmx6h/12-13.pdf/file</t>
+  </si>
+  <si>
+    <t>14-15 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/8jeooidep1fsjc9/14-15.pdf/file</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/xmil79wx5ev2470/16-17.pdf/file</t>
+  </si>
+  <si>
+    <t>18-19 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/4mjtec3npabbf9u/18-19.pdf/file</t>
+  </si>
+  <si>
+    <t>20-24 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/jsjpmagx2n547u4/20-24.pdf/file</t>
+  </si>
+  <si>
+    <t>25-29 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/6vvizj6axpa5kcn/25-29.pdf/file</t>
+  </si>
+  <si>
+    <t>30-34 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/sv6xzy3he6wmh0h/30-34.pdf/file</t>
+  </si>
+  <si>
+    <t>35-39 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/pzgieeprv0z6k6g/35-39.pdf/file</t>
+  </si>
+  <si>
+    <t>40-44 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/9talex100wig0mo/40-44.pdf/file</t>
+  </si>
+  <si>
+    <t>45-49 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/rspdhvzl8ua7n81/45-49.pdf/file</t>
+  </si>
+  <si>
+    <t>50-54 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/8lj0zv2bswpbcey/50-54.pdf/file</t>
+  </si>
+  <si>
+    <t>55-59 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/tg527rjbwj4kbgc/55-59.pdf/file</t>
+  </si>
+  <si>
+    <t>60-64 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/gc6rsgpswiwn7ci/60-64.pdf/file</t>
+  </si>
+  <si>
+    <t>65-69 лет</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/67dvqx7z4d23617/65-69.pdf/file</t>
+  </si>
+  <si>
+    <t>https://www.mediafire.com/file/aefsav2gqzcan1e/70.pdf/file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +461,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,11 +507,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -715,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +861,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -776,7 +881,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -816,7 +921,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -896,7 +1001,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1076,7 +1181,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1336,7 +1441,7 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1476,7 +1581,7 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1536,7 +1641,7 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1596,7 +1701,7 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1616,7 +1721,7 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1676,7 +1781,7 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1736,7 +1841,7 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1756,7 +1861,7 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1816,7 +1921,7 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1876,7 +1981,7 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1896,7 +2001,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1920,947 +2025,2290 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62">
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
         <v>6</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63">
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
         <v>6</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>4</v>
-      </c>
-      <c r="D64">
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
         <v>6</v>
       </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="B70" s="2">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="B72" s="2">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="B73" s="2">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="B74" s="2">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="B76" s="2">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="B77" s="2">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="B83" s="2">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="B84" s="2">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="B85" s="2">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="B86" s="2">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="B87" s="2">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>9</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>9</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>10</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2">
+        <v>10</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>4</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2">
+        <v>12</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>4</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
+    </row>
+    <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>4</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>12</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>4</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>4</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>4</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>4</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>4</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>4</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>4</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
+        <v>5</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>4</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>5</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2">
+        <v>6</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>5</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>3</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>5</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>4</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>5</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2">
+        <v>6</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2">
+        <v>7</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2">
+        <v>8</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2">
+        <v>9</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2">
+        <v>10</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>5</v>
+      </c>
+      <c r="C128" s="2">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>5</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2">
+        <v>12</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>5</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>5</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>5</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2">
+        <v>2</v>
+      </c>
+      <c r="E132" s="2">
+        <v>2</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>5</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>4</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
+      <c r="D137" s="2">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>5</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2">
+        <v>4</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>5</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2">
+        <v>5</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>5</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2">
+        <v>6</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2">
+        <v>3</v>
+      </c>
+      <c r="E142" s="2">
+        <v>7</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2">
+        <v>3</v>
+      </c>
+      <c r="E143" s="2">
+        <v>8</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2">
+        <v>9</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>5</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1</v>
+      </c>
+      <c r="D145" s="2">
+        <v>4</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>5</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2">
+        <v>4</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>5</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2">
+        <v>4</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>5</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2">
+        <v>4</v>
+      </c>
+      <c r="E148" s="2">
+        <v>3</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>5</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4</v>
+      </c>
+      <c r="E149" s="2">
+        <v>4</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>5</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2">
+        <v>4</v>
+      </c>
+      <c r="E150" s="2">
+        <v>5</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>5</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2">
+        <v>4</v>
+      </c>
+      <c r="E151" s="2">
+        <v>6</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>5</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2">
+        <v>4</v>
+      </c>
+      <c r="E152" s="2">
+        <v>7</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>5</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4</v>
+      </c>
+      <c r="E153" s="2">
+        <v>8</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>5</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2">
+        <v>4</v>
+      </c>
+      <c r="E154" s="2">
+        <v>9</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>5</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2">
+        <v>4</v>
+      </c>
+      <c r="E155" s="2">
+        <v>10</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>5</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2">
+        <v>4</v>
+      </c>
+      <c r="E156" s="2">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2">
+        <v>4</v>
+      </c>
+      <c r="E157" s="2">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>5</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>5</v>
+      </c>
+      <c r="C159" s="2">
+        <v>2</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2">
+        <v>2</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2</v>
+      </c>
+      <c r="D161" s="2">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2">
+        <v>4</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>5</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2</v>
+      </c>
+      <c r="D163" s="2">
+        <v>5</v>
+      </c>
+      <c r="E163" s="2">
+        <v>0</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>5</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164" s="2">
+        <v>6</v>
+      </c>
+      <c r="E164" s="2">
+        <v>0</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2">
+        <v>7</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>5</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2</v>
+      </c>
+      <c r="D166" s="2">
+        <v>8</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>5</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2">
+        <v>9</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>5</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2">
+        <v>10</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>5</v>
+      </c>
+      <c r="C169" s="2">
+        <v>2</v>
+      </c>
+      <c r="D169" s="2">
+        <v>11</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>5</v>
+      </c>
+      <c r="C170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2">
+        <v>12</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>6</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
+    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>6</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
+    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>7</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>0</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
+    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>7</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>0</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>6</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>6</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
-        <v>4</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>5</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>6</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>6</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>7</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>7</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>109</v>
-      </c>
-    </row>
+    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tree.xlsx
+++ b/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB040B3-B83F-46C3-BFB6-65556D9A6A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C551AA0-546F-475E-B555-038790924C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="140">
   <si>
     <t>FirstLevel</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>#Наши секции</t>
-  </si>
-  <si>
-    <t>Файл: Карта секций</t>
   </si>
   <si>
     <t>Стоматология</t>
@@ -820,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2402,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2422,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2442,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2482,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2502,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2582,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2602,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2662,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2682,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2702,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2722,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2742,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2762,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2802,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2842,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2882,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2902,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2922,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2942,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2962,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2982,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3002,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3022,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3042,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3062,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3102,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3162,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3182,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3222,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3242,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3262,7 +3259,7 @@
         <v>5</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3282,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3302,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3322,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3342,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3362,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3382,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3402,7 +3399,7 @@
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3422,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3442,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3462,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3482,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3502,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3522,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3542,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3562,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3582,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3602,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3622,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3642,7 +3639,7 @@
         <v>6</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3662,7 +3659,7 @@
         <v>7</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>8</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3702,7 +3699,7 @@
         <v>9</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3722,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3742,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3762,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3782,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3802,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3822,7 +3819,7 @@
         <v>5</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3842,7 +3839,7 @@
         <v>6</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3862,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3882,7 +3879,7 @@
         <v>8</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3902,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3922,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3942,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3962,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3982,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4002,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4022,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4042,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4062,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4082,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4102,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4122,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4142,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4162,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4182,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4202,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4302,11 +4299,229 @@
         <v>0</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>7</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>0</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>7</v>
+      </c>
+      <c r="C176" s="2">
+        <v>3</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>0</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>7</v>
+      </c>
+      <c r="C177" s="2">
+        <v>4</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>0</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>7</v>
+      </c>
+      <c r="C178" s="2">
+        <v>5</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2">
+        <v>0</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>7</v>
+      </c>
+      <c r="C179" s="2">
+        <v>6</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2">
+        <v>0</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>7</v>
+      </c>
+      <c r="C180" s="2">
+        <v>7</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>7</v>
+      </c>
+      <c r="C181" s="2">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>7</v>
+      </c>
+      <c r="C182" s="2">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2">
+        <v>0</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>7</v>
+      </c>
+      <c r="C183" s="2">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>7</v>
+      </c>
+      <c r="C184" s="2">
+        <v>11</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2">
+        <v>0</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>7</v>
+      </c>
+      <c r="C185" s="2">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tree.xlsx
+++ b/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C551AA0-546F-475E-B555-038790924C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37ECCC1-52F7-40EB-A634-807FF3C19C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
   <si>
     <t>FirstLevel</t>
   </si>
@@ -238,15 +238,6 @@
     <t>Жданов В.А. aka Березовая роща</t>
   </si>
   <si>
-    <t>Файл: Жданов Видео 1</t>
-  </si>
-  <si>
-    <t>Файл: Жданов Видео 2</t>
-  </si>
-  <si>
-    <t>Файл: Жданов Видео 3</t>
-  </si>
-  <si>
     <t>Приглашенные эксперты</t>
   </si>
   <si>
@@ -440,6 +431,12 @@
   </si>
   <si>
     <t>https://www.mediafire.com/file/aefsav2gqzcan1e/70.pdf/file</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BsdkyWPVywexLw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/n6eQe49xnrMKPg</t>
   </si>
 </sst>
 </file>
@@ -817,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="J179" sqref="J179"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2219,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2230,16 +2227,16 @@
         <v>3</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>74</v>
+      <c r="F71" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2253,13 +2250,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>75</v>
+      <c r="F72" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2273,13 +2270,13 @@
         <v>3</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2293,13 +2290,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2307,19 +2304,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>78</v>
+      <c r="F75" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2330,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -2339,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2353,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="D77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2376,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="2">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2393,13 +2390,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2416,10 +2413,10 @@
         <v>2</v>
       </c>
       <c r="E80" s="2">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2433,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="D81" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2456,10 +2453,10 @@
         <v>3</v>
       </c>
       <c r="E82" s="2">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2473,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="D83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2496,10 +2493,10 @@
         <v>4</v>
       </c>
       <c r="E84" s="2">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2513,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="D85" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2536,10 +2533,10 @@
         <v>5</v>
       </c>
       <c r="E86" s="2">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2553,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87" s="2">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2576,10 +2573,10 @@
         <v>6</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>127</v>
+        <v>1</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2593,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="D89" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2616,10 +2613,10 @@
         <v>7</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>129</v>
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2633,13 +2630,13 @@
         <v>1</v>
       </c>
       <c r="D91" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2656,10 +2653,10 @@
         <v>8</v>
       </c>
       <c r="E92" s="2">
-        <v>0</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2673,13 +2670,13 @@
         <v>1</v>
       </c>
       <c r="D93" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2696,10 +2693,10 @@
         <v>9</v>
       </c>
       <c r="E94" s="2">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2713,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="D95" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2736,10 +2733,10 @@
         <v>10</v>
       </c>
       <c r="E96" s="2">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2753,13 +2750,13 @@
         <v>1</v>
       </c>
       <c r="D97" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2776,10 +2773,10 @@
         <v>11</v>
       </c>
       <c r="E98" s="2">
-        <v>0</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2793,13 +2790,13 @@
         <v>1</v>
       </c>
       <c r="D99" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2816,10 +2813,10 @@
         <v>12</v>
       </c>
       <c r="E100" s="2">
-        <v>0</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2830,16 +2827,16 @@
         <v>4</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2853,13 +2850,13 @@
         <v>2</v>
       </c>
       <c r="D102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2876,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="E103" s="2">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2893,13 +2890,13 @@
         <v>2</v>
       </c>
       <c r="D104" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2916,10 +2913,10 @@
         <v>2</v>
       </c>
       <c r="E105" s="2">
-        <v>0</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2933,13 +2930,13 @@
         <v>2</v>
       </c>
       <c r="D106" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2956,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2973,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="D108" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2996,10 +2993,10 @@
         <v>4</v>
       </c>
       <c r="E109" s="2">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3013,13 +3010,13 @@
         <v>2</v>
       </c>
       <c r="D110" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>113</v>
+        <v>0</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3036,10 +3033,10 @@
         <v>5</v>
       </c>
       <c r="E111" s="2">
-        <v>0</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3053,13 +3050,13 @@
         <v>2</v>
       </c>
       <c r="D112" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>115</v>
+        <v>0</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3076,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="E113" s="2">
-        <v>0</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3087,19 +3084,19 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>116</v>
+        <v>0</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3110,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2">
         <v>0</v>
@@ -3119,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3133,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="D116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3156,9 +3153,9 @@
         <v>1</v>
       </c>
       <c r="E117" s="2">
-        <v>0</v>
-      </c>
-      <c r="F117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3176,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="E118" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3196,10 +3193,10 @@
         <v>1</v>
       </c>
       <c r="E119" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3216,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="E120" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3236,10 +3233,10 @@
         <v>1</v>
       </c>
       <c r="E121" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3256,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="E122" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3276,10 +3273,10 @@
         <v>1</v>
       </c>
       <c r="E123" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3296,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="E124" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3316,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="E125" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3336,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="E126" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3356,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="E127" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="E128" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3393,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="D129" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" s="2">
-        <v>12</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3416,9 +3413,9 @@
         <v>2</v>
       </c>
       <c r="E130" s="2">
-        <v>0</v>
-      </c>
-      <c r="F130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3436,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>94</v>
@@ -3456,10 +3453,10 @@
         <v>2</v>
       </c>
       <c r="E132" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3476,10 +3473,10 @@
         <v>2</v>
       </c>
       <c r="E133" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3493,13 +3490,13 @@
         <v>1</v>
       </c>
       <c r="D134" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" s="2">
-        <v>4</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3516,10 +3513,10 @@
         <v>3</v>
       </c>
       <c r="E135" s="2">
-        <v>0</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3536,10 +3533,10 @@
         <v>3</v>
       </c>
       <c r="E136" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3556,10 +3553,10 @@
         <v>3</v>
       </c>
       <c r="E137" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3576,10 +3573,10 @@
         <v>3</v>
       </c>
       <c r="E138" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3596,10 +3593,10 @@
         <v>3</v>
       </c>
       <c r="E139" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3616,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="E140" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3636,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="E141" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3656,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="E142" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>100</v>
@@ -3676,13 +3673,13 @@
         <v>3</v>
       </c>
       <c r="E143" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -3693,16 +3690,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144" s="2">
-        <v>9</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -3716,10 +3713,10 @@
         <v>4</v>
       </c>
       <c r="E145" s="2">
-        <v>0</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3736,10 +3733,10 @@
         <v>4</v>
       </c>
       <c r="E146" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3756,10 +3753,10 @@
         <v>4</v>
       </c>
       <c r="E147" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3776,10 +3773,10 @@
         <v>4</v>
       </c>
       <c r="E148" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3796,10 +3793,10 @@
         <v>4</v>
       </c>
       <c r="E149" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3816,10 +3813,10 @@
         <v>4</v>
       </c>
       <c r="E150" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3836,10 +3833,10 @@
         <v>4</v>
       </c>
       <c r="E151" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3856,10 +3853,10 @@
         <v>4</v>
       </c>
       <c r="E152" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3876,10 +3873,10 @@
         <v>4</v>
       </c>
       <c r="E153" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3896,10 +3893,10 @@
         <v>4</v>
       </c>
       <c r="E154" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3916,10 +3913,10 @@
         <v>4</v>
       </c>
       <c r="E155" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3936,10 +3933,10 @@
         <v>4</v>
       </c>
       <c r="E156" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3950,16 +3947,16 @@
         <v>5</v>
       </c>
       <c r="C157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E157" s="2">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3973,13 +3970,13 @@
         <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>89</v>
+      <c r="F158" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3993,13 +3990,13 @@
         <v>2</v>
       </c>
       <c r="D159" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4013,13 +4010,13 @@
         <v>2</v>
       </c>
       <c r="D160" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4033,13 +4030,13 @@
         <v>2</v>
       </c>
       <c r="D161" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4053,13 +4050,13 @@
         <v>2</v>
       </c>
       <c r="D162" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4073,13 +4070,13 @@
         <v>2</v>
       </c>
       <c r="D163" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4093,13 +4090,13 @@
         <v>2</v>
       </c>
       <c r="D164" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4113,13 +4110,13 @@
         <v>2</v>
       </c>
       <c r="D165" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4133,13 +4130,13 @@
         <v>2</v>
       </c>
       <c r="D166" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4153,13 +4150,13 @@
         <v>2</v>
       </c>
       <c r="D167" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" s="2">
         <v>0</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4173,13 +4170,13 @@
         <v>2</v>
       </c>
       <c r="D168" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" s="2">
         <v>0</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4193,13 +4190,13 @@
         <v>2</v>
       </c>
       <c r="D169" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E169" s="2">
         <v>0</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4207,19 +4204,19 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D170" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E170" s="2">
         <v>0</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>104</v>
+      <c r="F170" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4230,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2">
         <v>0</v>
@@ -4238,8 +4235,8 @@
       <c r="E171" s="2">
         <v>0</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>86</v>
+      <c r="F171" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4247,10 +4244,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" s="2">
         <v>0</v>
@@ -4258,8 +4255,8 @@
       <c r="E172" s="2">
         <v>0</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>87</v>
+      <c r="F172" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4270,7 +4267,7 @@
         <v>7</v>
       </c>
       <c r="C173" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" s="2">
         <v>0</v>
@@ -4278,8 +4275,8 @@
       <c r="E173" s="2">
         <v>0</v>
       </c>
-      <c r="F173" s="4" t="s">
-        <v>88</v>
+      <c r="F173" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4290,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="C174" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" s="2">
         <v>0</v>
@@ -4299,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4310,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="C175" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175" s="2">
         <v>0</v>
@@ -4319,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="C176" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" s="2">
         <v>0</v>
@@ -4339,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,7 +4347,7 @@
         <v>7</v>
       </c>
       <c r="C177" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D177" s="2">
         <v>0</v>
@@ -4359,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4370,7 +4367,7 @@
         <v>7</v>
       </c>
       <c r="C178" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D178" s="2">
         <v>0</v>
@@ -4379,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,7 +4387,7 @@
         <v>7</v>
       </c>
       <c r="C179" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -4399,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4410,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="C180" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D180" s="2">
         <v>0</v>
@@ -4419,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,7 +4427,7 @@
         <v>7</v>
       </c>
       <c r="C181" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2">
         <v>0</v>
@@ -4439,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,7 +4447,7 @@
         <v>7</v>
       </c>
       <c r="C182" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" s="2">
         <v>0</v>
@@ -4459,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="C183" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -4479,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4490,7 +4487,7 @@
         <v>7</v>
       </c>
       <c r="C184" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -4499,27 +4496,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
-        <v>183</v>
-      </c>
-      <c r="B185" s="2">
-        <v>7</v>
-      </c>
-      <c r="C185" s="2">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="2">
-        <v>0</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/tree.xlsx
+++ b/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E10776-1D33-4348-BAC8-D1FDE1B8CBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CD2401-571D-4647-A72D-5E2910268B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,9 +256,6 @@
     <t>#Чат для общения</t>
   </si>
   <si>
-    <t>Файл: ЗОЖник</t>
-  </si>
-  <si>
     <t>#Наши секции</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>https://youtu.be/X8x_6pp_msc</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
   </si>
 </sst>
 </file>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3121,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
         <v>6</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>7</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3201,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>9</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3241,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3341,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3361,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3501,7 +3501,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>8</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3581,7 +3581,7 @@
         <v>9</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3661,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3681,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3701,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3721,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3741,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3781,7 +3781,7 @@
         <v>9</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3821,7 +3821,7 @@
         <v>11</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3841,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/tree.xlsx
+++ b/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CD2401-571D-4647-A72D-5E2910268B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC07C7C-FF67-4351-AB06-E58BBAA13C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
   <si>
     <t>FirstLevel</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>Ссылка</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8-3U7zgCxAo</t>
   </si>
 </sst>
 </file>
@@ -799,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,19 +1652,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>44</v>
+      <c r="F43" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1680,8 +1683,8 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
-        <v>45</v>
+      <c r="F44" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1695,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,16 +1715,16 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>47</v>
+      <c r="F46" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,13 +1798,13 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,10 +1841,10 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,16 +1855,16 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,13 +1878,13 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,10 +1921,10 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,13 +1938,13 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,10 +1961,10 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,10 +1981,10 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,16 +1995,16 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,13 +2018,13 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,30 +2041,30 @@
         <v>5</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>2</v>
-      </c>
-      <c r="C63" s="2">
-        <v>4</v>
-      </c>
-      <c r="D63" s="2">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2">
-        <v>2</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>64</v>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2075,13 +2078,13 @@
         <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="2">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2098,10 +2101,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2118,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2129,19 +2132,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D67" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2152,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -2161,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2175,13 +2178,13 @@
         <v>2</v>
       </c>
       <c r="D69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>130</v>
+      <c r="F69" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2195,13 +2198,13 @@
         <v>2</v>
       </c>
       <c r="D70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2209,19 +2212,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>70</v>
+      <c r="F71" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2232,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -2241,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2255,13 +2258,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2278,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2295,13 +2298,13 @@
         <v>1</v>
       </c>
       <c r="D75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="2">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2318,10 +2321,10 @@
         <v>2</v>
       </c>
       <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2335,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="D77" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,10 +2361,10 @@
         <v>3</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2375,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2398,10 +2401,10 @@
         <v>4</v>
       </c>
       <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2415,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="D81" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" s="2">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2438,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>116</v>
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2455,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="D83" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" s="2">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2478,10 +2481,10 @@
         <v>6</v>
       </c>
       <c r="E84" s="2">
-        <v>1</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2495,13 +2498,13 @@
         <v>1</v>
       </c>
       <c r="D85" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2518,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2535,13 +2538,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" s="2">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2558,10 +2561,10 @@
         <v>8</v>
       </c>
       <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2575,13 +2578,13 @@
         <v>1</v>
       </c>
       <c r="D89" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" s="2">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2598,10 +2601,10 @@
         <v>9</v>
       </c>
       <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2615,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="D91" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2638,10 +2641,10 @@
         <v>10</v>
       </c>
       <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2655,13 +2658,13 @@
         <v>1</v>
       </c>
       <c r="D93" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>127</v>
+        <v>1</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2678,10 +2681,10 @@
         <v>11</v>
       </c>
       <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2695,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="D95" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" s="2">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2718,10 +2721,10 @@
         <v>12</v>
       </c>
       <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2732,16 +2735,16 @@
         <v>4</v>
       </c>
       <c r="C97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E97" s="2">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2755,13 +2758,13 @@
         <v>2</v>
       </c>
       <c r="D98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2778,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2795,13 +2798,13 @@
         <v>2</v>
       </c>
       <c r="D100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" s="2">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2818,10 +2821,10 @@
         <v>2</v>
       </c>
       <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2835,13 +2838,13 @@
         <v>2</v>
       </c>
       <c r="D102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2858,10 +2861,10 @@
         <v>3</v>
       </c>
       <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2875,13 +2878,13 @@
         <v>2</v>
       </c>
       <c r="D104" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2898,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2915,13 +2918,13 @@
         <v>2</v>
       </c>
       <c r="D106" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" s="2">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2938,10 +2941,10 @@
         <v>5</v>
       </c>
       <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2955,13 +2958,13 @@
         <v>2</v>
       </c>
       <c r="D108" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2978,10 +2981,10 @@
         <v>6</v>
       </c>
       <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2989,19 +2992,19 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E110" s="2">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3012,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -3021,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3035,13 +3038,13 @@
         <v>1</v>
       </c>
       <c r="D112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3058,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3078,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="E114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3098,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="E115" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3118,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="E116" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3138,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="E117" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3158,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="E118" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3178,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="E119" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3198,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="E120" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3218,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="E121" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3238,10 +3241,10 @@
         <v>1</v>
       </c>
       <c r="E122" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3258,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="E123" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3278,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="E124" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3295,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="D125" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" s="2">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3318,10 +3321,10 @@
         <v>2</v>
       </c>
       <c r="E126" s="2">
-        <v>1</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3338,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="E127" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3358,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="E128" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3378,10 +3381,10 @@
         <v>2</v>
       </c>
       <c r="E129" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3395,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="D130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130" s="2">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3418,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="E131" s="2">
-        <v>1</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3438,10 +3441,10 @@
         <v>3</v>
       </c>
       <c r="E132" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3458,10 +3461,10 @@
         <v>3</v>
       </c>
       <c r="E133" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3478,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="E134" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3498,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="E135" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3518,10 +3521,10 @@
         <v>3</v>
       </c>
       <c r="E136" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3538,10 +3541,10 @@
         <v>3</v>
       </c>
       <c r="E137" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3558,10 +3561,10 @@
         <v>3</v>
       </c>
       <c r="E138" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3578,13 +3581,13 @@
         <v>3</v>
       </c>
       <c r="E139" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3595,16 +3598,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E140" s="2">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3618,10 +3621,10 @@
         <v>4</v>
       </c>
       <c r="E141" s="2">
-        <v>1</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3638,10 +3641,10 @@
         <v>4</v>
       </c>
       <c r="E142" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3658,10 +3661,10 @@
         <v>4</v>
       </c>
       <c r="E143" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3678,10 +3681,10 @@
         <v>4</v>
       </c>
       <c r="E144" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3698,10 +3701,10 @@
         <v>4</v>
       </c>
       <c r="E145" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3718,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="E146" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3738,10 +3741,10 @@
         <v>4</v>
       </c>
       <c r="E147" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3758,10 +3761,10 @@
         <v>4</v>
       </c>
       <c r="E148" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3778,10 +3781,10 @@
         <v>4</v>
       </c>
       <c r="E149" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3798,10 +3801,10 @@
         <v>4</v>
       </c>
       <c r="E150" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3818,10 +3821,10 @@
         <v>4</v>
       </c>
       <c r="E151" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3838,10 +3841,10 @@
         <v>4</v>
       </c>
       <c r="E152" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3852,16 +3855,16 @@
         <v>5</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E153" s="2">
-        <v>0</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3875,13 +3878,13 @@
         <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" s="2">
         <v>0</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>83</v>
+      <c r="F154" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3895,13 +3898,13 @@
         <v>2</v>
       </c>
       <c r="D155" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3915,13 +3918,13 @@
         <v>2</v>
       </c>
       <c r="D156" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3935,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="D157" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3955,13 +3958,13 @@
         <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3975,13 +3978,13 @@
         <v>2</v>
       </c>
       <c r="D159" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3995,13 +3998,13 @@
         <v>2</v>
       </c>
       <c r="D160" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4015,13 +4018,13 @@
         <v>2</v>
       </c>
       <c r="D161" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4035,13 +4038,13 @@
         <v>2</v>
       </c>
       <c r="D162" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4055,13 +4058,13 @@
         <v>2</v>
       </c>
       <c r="D163" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4075,13 +4078,13 @@
         <v>2</v>
       </c>
       <c r="D164" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4095,13 +4098,13 @@
         <v>2</v>
       </c>
       <c r="D165" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4109,19 +4112,19 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>77</v>
+      <c r="F166" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4132,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" s="2">
         <v>0</v>
@@ -4140,8 +4143,8 @@
       <c r="E167" s="2">
         <v>0</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>134</v>
+      <c r="F167" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4149,10 +4152,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" s="2">
         <v>0</v>
@@ -4160,8 +4163,8 @@
       <c r="E168" s="2">
         <v>0</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>78</v>
+      <c r="F168" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4172,7 +4175,7 @@
         <v>7</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" s="2">
         <v>0</v>
@@ -4180,8 +4183,8 @@
       <c r="E169" s="2">
         <v>0</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>83</v>
+      <c r="F169" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4192,7 +4195,7 @@
         <v>7</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2">
         <v>0</v>
@@ -4201,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4212,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="C171" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171" s="2">
         <v>0</v>
@@ -4221,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172" s="2">
         <v>0</v>
@@ -4241,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,7 +4255,7 @@
         <v>7</v>
       </c>
       <c r="C173" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173" s="2">
         <v>0</v>
@@ -4261,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4272,7 +4275,7 @@
         <v>7</v>
       </c>
       <c r="C174" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174" s="2">
         <v>0</v>
@@ -4281,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4292,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="C175" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D175" s="2">
         <v>0</v>
@@ -4301,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,7 +4315,7 @@
         <v>7</v>
       </c>
       <c r="C176" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D176" s="2">
         <v>0</v>
@@ -4321,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="C177" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" s="2">
         <v>0</v>
@@ -4341,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,7 +4355,7 @@
         <v>7</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2">
         <v>0</v>
@@ -4361,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="C179" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -4381,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4392,20 +4395,43 @@
         <v>7</v>
       </c>
       <c r="C180" s="2">
+        <v>11</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>7</v>
+      </c>
+      <c r="C181" s="2">
         <v>12</v>
       </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="2">
-        <v>0</v>
-      </c>
-      <c r="F180" s="2" t="s">
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F43" r:id="rId1" xr:uid="{37F7921E-F0B3-41E5-B3FD-2E65880FAE8A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/tree.xlsx
+++ b/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC07C7C-FF67-4351-AB06-E58BBAA13C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED0F0AD-FC69-463A-BEE0-1A51C081EF50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
   <si>
     <t>FirstLevel</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>https://youtu.be/8-3U7zgCxAo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gYIQr2vpcls</t>
   </si>
 </sst>
 </file>
@@ -802,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,19 +1675,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>44</v>
+      <c r="F44" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1695,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1703,8 +1706,8 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" t="s">
-        <v>45</v>
+      <c r="F45" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,16 +1738,16 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>47</v>
+      <c r="F47" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,13 +1761,13 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,10 +1844,10 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,16 +1878,16 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,13 +1901,13 @@
         <v>3</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1921,10 +1924,10 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,10 +1944,10 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,13 +1961,13 @@
         <v>3</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,10 +1984,10 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,10 +2004,10 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,16 +2018,16 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,13 +2041,13 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,30 +2064,30 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>2</v>
-      </c>
-      <c r="C64" s="2">
-        <v>4</v>
-      </c>
-      <c r="D64" s="2">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2">
-        <v>2</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>64</v>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2098,13 +2101,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2121,10 +2124,10 @@
         <v>6</v>
       </c>
       <c r="E66" s="2">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2141,10 +2144,10 @@
         <v>6</v>
       </c>
       <c r="E67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2152,19 +2155,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D68" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2175,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2198,13 +2201,13 @@
         <v>2</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>130</v>
+      <c r="F70" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2218,13 +2221,13 @@
         <v>2</v>
       </c>
       <c r="D71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2232,19 +2235,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>70</v>
+      <c r="F72" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2255,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -2264,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2278,13 +2281,13 @@
         <v>1</v>
       </c>
       <c r="D74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2301,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="2">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2318,13 +2321,13 @@
         <v>1</v>
       </c>
       <c r="D76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2341,10 +2344,10 @@
         <v>2</v>
       </c>
       <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="D78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2381,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2398,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="2">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2421,10 +2424,10 @@
         <v>4</v>
       </c>
       <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2438,13 +2441,13 @@
         <v>1</v>
       </c>
       <c r="D82" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" s="2">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2461,10 +2464,10 @@
         <v>5</v>
       </c>
       <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>116</v>
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2478,13 +2481,13 @@
         <v>1</v>
       </c>
       <c r="D84" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2501,10 +2504,10 @@
         <v>6</v>
       </c>
       <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2518,13 +2521,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" s="2">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2541,10 +2544,10 @@
         <v>7</v>
       </c>
       <c r="E87" s="2">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2558,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2581,10 +2584,10 @@
         <v>8</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2598,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="D90" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2621,10 +2624,10 @@
         <v>9</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2638,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="D92" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2661,10 +2664,10 @@
         <v>10</v>
       </c>
       <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2678,13 +2681,13 @@
         <v>1</v>
       </c>
       <c r="D94" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94" s="2">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>127</v>
+        <v>1</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2701,10 +2704,10 @@
         <v>11</v>
       </c>
       <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2718,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="D96" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="2">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2741,10 +2744,10 @@
         <v>12</v>
       </c>
       <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2755,16 +2758,16 @@
         <v>4</v>
       </c>
       <c r="C98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E98" s="2">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2778,13 +2781,13 @@
         <v>2</v>
       </c>
       <c r="D99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2801,10 +2804,10 @@
         <v>1</v>
       </c>
       <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2818,13 +2821,13 @@
         <v>2</v>
       </c>
       <c r="D101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="2">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2841,10 +2844,10 @@
         <v>2</v>
       </c>
       <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2858,13 +2861,13 @@
         <v>2</v>
       </c>
       <c r="D103" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103" s="2">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2898,13 +2901,13 @@
         <v>2</v>
       </c>
       <c r="D105" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="2">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2921,10 +2924,10 @@
         <v>4</v>
       </c>
       <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2938,13 +2941,13 @@
         <v>2</v>
       </c>
       <c r="D107" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2961,10 +2964,10 @@
         <v>5</v>
       </c>
       <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2978,13 +2981,13 @@
         <v>2</v>
       </c>
       <c r="D109" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" s="2">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3001,10 +3004,10 @@
         <v>6</v>
       </c>
       <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3012,19 +3015,19 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D111" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E111" s="2">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3035,7 +3038,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -3044,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3058,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="D113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3081,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3101,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="E115" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3121,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="E116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3141,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="E117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3161,10 +3164,10 @@
         <v>1</v>
       </c>
       <c r="E118" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3181,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="E119" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3201,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="E120" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3221,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="E121" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3241,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="E122" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3261,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="E123" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3281,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="E124" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3301,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="E125" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3318,13 +3321,13 @@
         <v>1</v>
       </c>
       <c r="D126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126" s="2">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3341,10 +3344,10 @@
         <v>2</v>
       </c>
       <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3361,10 +3364,10 @@
         <v>2</v>
       </c>
       <c r="E128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3381,10 +3384,10 @@
         <v>2</v>
       </c>
       <c r="E129" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3401,10 +3404,10 @@
         <v>2</v>
       </c>
       <c r="E130" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3418,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="D131" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" s="2">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3441,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="E132" s="2">
-        <v>1</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3461,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="E133" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3481,10 +3484,10 @@
         <v>3</v>
       </c>
       <c r="E134" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3501,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="E135" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3521,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="E136" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3541,10 +3544,10 @@
         <v>3</v>
       </c>
       <c r="E137" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3561,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="E138" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3581,10 +3584,10 @@
         <v>3</v>
       </c>
       <c r="E139" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3601,13 +3604,13 @@
         <v>3</v>
       </c>
       <c r="E140" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3618,16 +3621,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141" s="2">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3641,10 +3644,10 @@
         <v>4</v>
       </c>
       <c r="E142" s="2">
-        <v>1</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3661,10 +3664,10 @@
         <v>4</v>
       </c>
       <c r="E143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3681,10 +3684,10 @@
         <v>4</v>
       </c>
       <c r="E144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3701,10 +3704,10 @@
         <v>4</v>
       </c>
       <c r="E145" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3721,10 +3724,10 @@
         <v>4</v>
       </c>
       <c r="E146" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3741,10 +3744,10 @@
         <v>4</v>
       </c>
       <c r="E147" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3761,10 +3764,10 @@
         <v>4</v>
       </c>
       <c r="E148" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3781,10 +3784,10 @@
         <v>4</v>
       </c>
       <c r="E149" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3801,10 +3804,10 @@
         <v>4</v>
       </c>
       <c r="E150" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3821,10 +3824,10 @@
         <v>4</v>
       </c>
       <c r="E151" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3841,10 +3844,10 @@
         <v>4</v>
       </c>
       <c r="E152" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3861,10 +3864,10 @@
         <v>4</v>
       </c>
       <c r="E153" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3875,16 +3878,16 @@
         <v>5</v>
       </c>
       <c r="C154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E154" s="2">
-        <v>0</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3898,13 +3901,13 @@
         <v>2</v>
       </c>
       <c r="D155" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>83</v>
+      <c r="F155" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3918,13 +3921,13 @@
         <v>2</v>
       </c>
       <c r="D156" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3938,13 +3941,13 @@
         <v>2</v>
       </c>
       <c r="D157" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3958,13 +3961,13 @@
         <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3978,13 +3981,13 @@
         <v>2</v>
       </c>
       <c r="D159" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3998,13 +4001,13 @@
         <v>2</v>
       </c>
       <c r="D160" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4018,13 +4021,13 @@
         <v>2</v>
       </c>
       <c r="D161" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4038,13 +4041,13 @@
         <v>2</v>
       </c>
       <c r="D162" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4058,13 +4061,13 @@
         <v>2</v>
       </c>
       <c r="D163" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4078,13 +4081,13 @@
         <v>2</v>
       </c>
       <c r="D164" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4098,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="D165" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4118,13 +4121,13 @@
         <v>2</v>
       </c>
       <c r="D166" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4132,19 +4135,19 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D167" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E167" s="2">
         <v>0</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>77</v>
+      <c r="F167" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" s="2">
         <v>0</v>
@@ -4163,8 +4166,8 @@
       <c r="E168" s="2">
         <v>0</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>134</v>
+      <c r="F168" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4172,10 +4175,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" s="2">
         <v>0</v>
@@ -4183,8 +4186,8 @@
       <c r="E169" s="2">
         <v>0</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>78</v>
+      <c r="F169" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4195,7 +4198,7 @@
         <v>7</v>
       </c>
       <c r="C170" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" s="2">
         <v>0</v>
@@ -4203,8 +4206,8 @@
       <c r="E170" s="2">
         <v>0</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>83</v>
+      <c r="F170" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4215,7 +4218,7 @@
         <v>7</v>
       </c>
       <c r="C171" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2">
         <v>0</v>
@@ -4224,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4235,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="C172" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" s="2">
         <v>0</v>
@@ -4244,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="C173" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D173" s="2">
         <v>0</v>
@@ -4264,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="C174" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D174" s="2">
         <v>0</v>
@@ -4284,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,7 +4298,7 @@
         <v>7</v>
       </c>
       <c r="C175" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D175" s="2">
         <v>0</v>
@@ -4304,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4315,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="C176" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D176" s="2">
         <v>0</v>
@@ -4324,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="C177" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D177" s="2">
         <v>0</v>
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="C178" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" s="2">
         <v>0</v>
@@ -4364,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="C179" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -4384,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,7 +4398,7 @@
         <v>7</v>
       </c>
       <c r="C180" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D180" s="2">
         <v>0</v>
@@ -4404,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,15 +4418,35 @@
         <v>7</v>
       </c>
       <c r="C181" s="2">
+        <v>11</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>7</v>
+      </c>
+      <c r="C182" s="2">
         <v>12</v>
       </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="2">
-        <v>0</v>
-      </c>
-      <c r="F181" s="2" t="s">
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2">
+        <v>0</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>94</v>
       </c>
     </row>
